--- a/medicine/Psychotrope/Vinisud/Vinisud.xlsx
+++ b/medicine/Psychotrope/Vinisud/Vinisud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Crée en 1994, Vinisud est un salon international professionnel du monde viticole, basé à Montpellier dans le département de l'Hérault, en France. Au fil de ses éditions, il est devenu l'un des salons de références, concernant la viticulture dans le bassin méditerranéen[1].
+Crée en 1994, Vinisud est un salon international professionnel du monde viticole, basé à Montpellier dans le département de l'Hérault, en France. Au fil de ses éditions, il est devenu l'un des salons de références, concernant la viticulture dans le bassin méditerranéen.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Organisation
-Initialement organisé tous les deux ans, depuis 1994, Vinisud a lieu annuellement depuis l'édition de 2016[2]. En plus de la forme classique de salon, avec la présence d'exposants, le salon Vinisud propose au professionnel des espaces de rencontres, de rendez-vous conférence, et de dégustation spécifiques : 
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement organisé tous les deux ans, depuis 1994, Vinisud a lieu annuellement depuis l'édition de 2016. En plus de la forme classique de salon, avec la présence d'exposants, le salon Vinisud propose au professionnel des espaces de rencontres, de rendez-vous conférence, et de dégustation spécifiques : 
 La « Nouvelle Vague » pour les jeunes vignerons,
 Le « Palais Méditerranéen », espace de dégustation en libre service géré par l'Union des œnologues de France,
 La « Sparkling Zone », sur le vins effervescents,
@@ -523,8 +540,8 @@
 Un « Observatoire International des vins de la Méditerranée »,
 Le « Mediterranean wine tourisme » pour les rencontres œnotouristiques des producteurs méditerranéens,
 Le « Digital Hub », pour la découverte des nouvelles tendances internationales.
-Depuis octobre 2017, l'organisation de Vinisud est reprise par Comexposium. À partir de 2019,Vinisud sera organisé les années impaires, à Paris, conjointement avec le salon Vinovision. Les années paires, chacun des 2 salons se déroulera dans sa ville historique : Montpellier, pour Vinisud, Paris, pour Vinovision[3].
-Exposants</t>
+Depuis octobre 2017, l'organisation de Vinisud est reprise par Comexposium. À partir de 2019,Vinisud sera organisé les années impaires, à Paris, conjointement avec le salon Vinovision. Les années paires, chacun des 2 salons se déroulera dans sa ville historique : Montpellier, pour Vinisud, Paris, pour Vinovision.
+</t>
         </is>
       </c>
     </row>
@@ -553,6 +570,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -578,7 +597,9 @@
           <t>Autres expositions de vin mondiales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vinexpo
 Vinexpo Asia-Pacific (années paires, depuis 1998)
